--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,15 +49,18 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,21 +73,24 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -94,85 +100,82 @@
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -544,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,16 +679,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6917808219178082</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C5">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D5">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3527131782945737</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C7">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>334</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.84375</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3154362416107382</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.291005291005291</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>134</v>
+        <v>342</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1746031746031746</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.09919571045576407</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,71 +1026,95 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>336</v>
+        <v>206</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L11">
+        <v>48</v>
+      </c>
+      <c r="M11">
+        <v>48</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1018766756032172</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>335</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.8169014084507042</v>
+      </c>
+      <c r="L12">
+        <v>116</v>
+      </c>
+      <c r="M12">
+        <v>116</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.8085106382978723</v>
-      </c>
-      <c r="L11">
-        <v>38</v>
-      </c>
-      <c r="M11">
-        <v>38</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12">
-        <v>0.8083333333333333</v>
-      </c>
-      <c r="L12">
-        <v>97</v>
-      </c>
-      <c r="M12">
-        <v>97</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.8046875</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L13">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1099,21 +1126,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1125,21 +1152,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7816901408450704</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1151,21 +1178,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7619047619047619</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1177,21 +1204,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="L17">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M17">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1203,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.7358490566037735</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1229,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6944444444444444</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1255,21 +1282,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6595744680851063</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1281,12 +1308,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
         <v>0.6214099216710183</v>
@@ -1312,16 +1339,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6046511627906976</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1333,15 +1360,15 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6041666666666666</v>
+        <v>0.58</v>
       </c>
       <c r="L23">
         <v>29</v>
@@ -1359,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.58</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1385,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5676470588235294</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L25">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1411,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>147</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5322033898305085</v>
+        <v>0.5152542372881356</v>
       </c>
       <c r="L26">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M26">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1437,21 +1464,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.5280898876404494</v>
+        <v>0.46875</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1463,21 +1490,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.4769874476987448</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L28">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M28">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1489,21 +1516,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.4375</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1515,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.4</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1541,21 +1568,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>0.4</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1567,47 +1594,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32">
+        <v>0.3974358974358974</v>
+      </c>
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>31</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>47</v>
-      </c>
-      <c r="K32">
-        <v>0.3972602739726027</v>
-      </c>
-      <c r="L32">
-        <v>29</v>
-      </c>
-      <c r="M32">
-        <v>29</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>44</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.3846153846153846</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1619,21 +1646,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.1076555023923445</v>
+        <v>0.09808612440191387</v>
       </c>
       <c r="L34">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1645,21 +1672,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.08413461538461539</v>
+        <v>0.06487695749440715</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1671,21 +1698,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>381</v>
+        <v>836</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.05592841163310962</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L36">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M36">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1697,21 +1724,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>844</v>
+        <v>861</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.04439511653718091</v>
+        <v>0.03229527104959631</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1723,59 +1750,59 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>861</v>
+        <v>839</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.02803738317757009</v>
+        <v>0.02807674309780065</v>
       </c>
       <c r="L38">
         <v>60</v>
       </c>
       <c r="M38">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>2080</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.01449742268041237</v>
+        <v>0.01483392454047082</v>
       </c>
       <c r="L39">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M39">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>3059</v>
+        <v>3055</v>
       </c>
     </row>
   </sheetData>
